--- a/Plantings.xlsx
+++ b/Plantings.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Documents\GitHub\WINDS_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2021_Spring\BE_523_Biosystems_Anal_Desing\WINDS_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="3435"/>
   </bookViews>
   <sheets>
     <sheet name="Plantings" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -987,7 +990,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1312,12 +1315,12 @@
   <dimension ref="A1:EG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
@@ -1333,6 +1336,7 @@
     <col min="30" max="30" width="12.85546875" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
     <col min="32" max="32" width="13.5703125" customWidth="1"/>
+    <col min="97" max="97" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:137" x14ac:dyDescent="0.25">
@@ -5054,5 +5058,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>